--- a/biology/Botanique/Areceae/Areceae.xlsx
+++ b/biology/Botanique/Areceae/Areceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Areceae est une tribu de plantes appartenant à la sous-famille Arecoideae de la famille Arecaceae. On peut considérer, actuellement, les sous-tribus suivantes[2],[3] : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Areceae est une tribu de plantes appartenant à la sous-famille Arecoideae de la famille Arecaceae. On peut considérer, actuellement, les sous-tribus suivantes, : 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les représentants des Areceae sont de petits à grands palmiers, ils peuvent être sans tige, debout ou, rarement, grimpants. Les feuilles sont pennées ou, entières et en deux parties. Les extrémités des feuillets sont entières ou prémorse (déchiquetées à l’extremité). Les gaines foliaires forment généralement une tige de couronne, mais cela peut également être absent[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les représentants des Areceae sont de petits à grands palmiers, ils peuvent être sans tige, debout ou, rarement, grimpants. Les feuilles sont pennées ou, entières et en deux parties. Les extrémités des feuillets sont entières ou prémorse (déchiquetées à l’extremité). Les gaines foliaires forment généralement une tige de couronne, mais cela peut également être absent.
 Les inflorescences sont sous ou entre les feuilles, elles sont en forme d'épi ou fortement ramifiées. Les bractées sur l'inflorescence consistent généralement en une feuille de couverture et une seule bractée sur la tige de l'inflorescence. Les fleurs sont dans la zone inférieure de l'inflorescence en triades, distalement puis souvent seulement individuellement et par paires, puis seulement plus que les fleurs mâles. Les triades sont souvent enfoncées dans l'axe. Les fleurs femelles ont des pétales libres ou fusionnés dans la zone la plus basse. Les staminodes sont pour la plupart libres, très rarement fusionnés pour former un anneau bien visible. Le gynécée est un pseudomonomère, il semble donc ne comporter qu'un seul carpelle .
 La cicatrice qui reste sur le fruit est basale ou apicale. L'exocarpe est lisse.
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les représentants de cette tribu sont basés principalement dans la région indo-pacifique. L'aire de répartition s'étend de Madagascar au sud de l'Inde et de l'Asie du Sud-Est au nord, presque jusqu'au Japon, au sud de l'Indonésie et au nord de l'Australie et  à la partie nord de la Nouvelle-Zélande. La biodiversité est particulièrement élevée sur l'arche des îles du Pacifique occidental.
 </t>
@@ -575,50 +591,359 @@
           <t>Tribu des Areceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’après la dernière classification des Arecaceae[5] établie par Baker &amp; Dransfield en 2016[4] cette tribu compte onze sous-tribu avec une soixantaine de genres. Avec une dizaine de genres non encore placés[6].
-Sous-tribu des Archontophoenicinae 
-Actinorhytis
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’après la dernière classification des Arecaceae établie par Baker &amp; Dransfield en 2016 cette tribu compte onze sous-tribu avec une soixantaine de genres. Avec une dizaine de genres non encore placés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-tribu des Archontophoenicinae </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Actinorhytis
 Archontophoenix
 Actinokentia
 Chambeyronia
-Kentiopsis
-Sous-tribu des Arecinae 
-Areca
+Kentiopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-tribu des Arecinae </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Areca
 Nenga
-Pinanga
-Sous-tribu des Basseliniinae 
-Basselinia
+Pinanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-tribu des Basseliniinae </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Basselinia
 Burretiokentia
 Cyphophoenix
 Cyphosperma
 Lepidorrhachis
-Physokentia
-Sous-tribu des Carpoxylinae 
-Carpoxylon
+Physokentia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-tribu des Carpoxylinae </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Carpoxylon
 Satakentia
-Neoveitchia
-Sous-tribu des Clinospermatinae
-Cyphokentia
-Clinosperma
-Sous-tribu des Dypsidinae
-Dypsis
+Neoveitchia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Clinospermatinae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cyphokentia
+Clinosperma</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Dypsidinae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dypsis
 Lemurophoenix
 Marojejya
-Masoala
-Sous-tribu des Laccospadicinae[a]
-Calyptrocalyx
+Masoala</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Laccospadicinae[a]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Calyptrocalyx
 Linospadix
 Howea
-Laccospadix
-Sous-tribu des Oncospermatinae
-Oncosperma
+Laccospadix</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Oncospermatinae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Oncosperma
 Deckenia
 Acanthophoenix
-Tectiphiala
-Sous-tribu des Ptychospermatinae
-Ptychosperma
+Tectiphiala</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Ptychospermatinae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ptychosperma
 Ponapea[b]
 Adonidia
 Balaka[c]
@@ -631,17 +956,119 @@
 Ptychococcus
 Jailoloa[f]
 Manjekia[f]
-Wallaceodoxa[f]
-Sous-tribu des Rhopalostylidinae
-Rhopalostylis
-Hedyscepe
-Sous-tribu des Verschaffeltiinae
-Nephrosperma
+Wallaceodoxa[f]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Rhopalostylidinae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rhopalostylis
+Hedyscepe</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Verschaffeltiinae</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nephrosperma
 Phoenicophorium
 Roscheria
-Verschaffeltia
-Genres non placés de la tribu des Areceae
-Bentinckia
+Verschaffeltia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Areceae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Areceae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Genres non placés de la tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bentinckia
 Clinostigma
 Cyrtostachys
 Dictyosperma
